--- a/WebAuto.Tests/TestFiles/master.xlsx
+++ b/WebAuto.Tests/TestFiles/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9630"/>
+    <workbookView xWindow="15" yWindow="-15" windowWidth="16185" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
+      <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+      <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +413,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
     <col min="3" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +441,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -475,10 +475,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/WebAuto.Tests/TestFiles/master.xlsx
+++ b/WebAuto.Tests/TestFiles/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-15" windowWidth="16185" windowHeight="6630"/>
+    <workbookView xWindow="15" yWindow="-15" windowWidth="16185" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>TESTCASES</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Test Search 5</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +426,7 @@
     <col min="3" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +459,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -465,10 +468,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4">
         <v>2</v>
